--- a/results/ga_calibration.xlsx
+++ b/results/ga_calibration.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\bradw\workspace\bayesian-wq-calibration\results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368676F9-DCD4-41F1-A130-C50D22AC0823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView xWindow="25920" yWindow="2850" windowWidth="25605" windowHeight="16380" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="README" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="single" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="material" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="material-diameter" sheetId="4" state="visible" r:id="rId6"/>
-    <sheet name="roughness" sheetId="5" state="visible" r:id="rId7"/>
+    <sheet name="README" sheetId="1" r:id="rId1"/>
+    <sheet name="single" sheetId="2" r:id="rId2"/>
+    <sheet name="material" sheetId="3" r:id="rId3"/>
+    <sheet name="material-diameter" sheetId="4" r:id="rId4"/>
+    <sheet name="roughness" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -24,103 +29,103 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">worksheet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wall_coeff_7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">single</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metallic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plastic_unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">material-diameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metallic_less_than_150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metallic_greater_than_150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roughness</t>
-  </si>
-  <si>
-    <t xml:space="preserve">less_than_50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between_50_and_65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Between_65_and_80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between_80_and_100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">between_100_and_120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">greater_than_120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">data_period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">train_mse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_mse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpu_time</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bulk_coeff</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+  <si>
+    <t>worksheet</t>
+  </si>
+  <si>
+    <t>wall_coeff_0</t>
+  </si>
+  <si>
+    <t>wall_coeff_1</t>
+  </si>
+  <si>
+    <t>wall_coeff_2</t>
+  </si>
+  <si>
+    <t>wall_coeff_3</t>
+  </si>
+  <si>
+    <t>wall_coeff_4</t>
+  </si>
+  <si>
+    <t>wall_coeff_5</t>
+  </si>
+  <si>
+    <t>wall_coeff_6</t>
+  </si>
+  <si>
+    <t>wall_coeff_7</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>metallic</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>plastic_unknown</t>
+  </si>
+  <si>
+    <t>material-diameter</t>
+  </si>
+  <si>
+    <t>metallic_less_than_150</t>
+  </si>
+  <si>
+    <t>metallic_greater_than_150</t>
+  </si>
+  <si>
+    <t>roughness</t>
+  </si>
+  <si>
+    <t>less_than_50</t>
+  </si>
+  <si>
+    <t>between_50_and_65</t>
+  </si>
+  <si>
+    <t>Between_65_and_80</t>
+  </si>
+  <si>
+    <t>between_80_and_100</t>
+  </si>
+  <si>
+    <t>between_100_and_120</t>
+  </si>
+  <si>
+    <t>greater_than_120</t>
+  </si>
+  <si>
+    <t>data_period</t>
+  </si>
+  <si>
+    <t>train_mse</t>
+  </si>
+  <si>
+    <t>test_mse</t>
+  </si>
+  <si>
+    <t>cpu_time</t>
+  </si>
+  <si>
+    <t>bulk_coeff</t>
+  </si>
+  <si>
+    <t>demand_resolution</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,22 +134,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -161,7 +151,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -169,101 +159,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0e2841"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e8e8e8"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607d"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -295,7 +262,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -319,7 +286,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -379,32 +346,31 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F10" activeCellId="1" sqref="P16:P17 F10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F10" activeCellId="1" sqref="P16:P17 F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="0" width="11.72"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="9" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -433,708 +399,687 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="1" sqref="P16:P17 H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q18" activeCellId="1" sqref="P16:P17 Q18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="0" width="13.57"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="7" max="9" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K8" activeCellId="1" sqref="P16:P17 K8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="13.57"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P16:P17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="6" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="0" width="11.72"/>
+    <col min="1" max="1" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" customWidth="1"/>
+    <col min="7" max="12" width="13.5703125" customWidth="1"/>
+    <col min="13" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>